--- a/TestSuites/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/TestSuites/UploadExcel/TD_RegOrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25613D2C-886A-45D9-8651-311BC25F5D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB547F75-7591-46B5-9520-332244D7CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="713">
   <si>
     <t>TesctCaseName</t>
   </si>
@@ -151,42 +151,42 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>20240910115804Test</t>
-  </si>
-  <si>
-    <t>20240910115804Auto</t>
-  </si>
-  <si>
-    <t>20240910115804@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP c9916715-80c8-4f74-bb04-1eda5248e663","Using soldTo : c9916715-80c8-4f74-bb04-1eda5248e663","Using billTo: c9916715-80c8-4f74-bb04-1eda5248e663","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214431 for AS order 20240910115804","version":"1.3.5-qa2.100","biId":"3214431"}}'}}}</t>
+    <t>20240913152506Test</t>
+  </si>
+  <si>
+    <t>20240913152506Auto</t>
+  </si>
+  <si>
+    <t>20240913152506@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP bff85d37-37a8-4bd9-b185-2f4380ce4015","Using soldTo : bff85d37-37a8-4bd9-b185-2f4380ce4015","Using billTo: bff85d37-37a8-4bd9-b185-2f4380ce4015","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214807 for AS order 20240913152506","version":"1.3.6-qa2.102","biId":"3214807"}}'}}}</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>3214431</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214431 for AS order 20240910115804</t>
-  </si>
-  <si>
-    <t>8000047065</t>
-  </si>
-  <si>
-    <t>20240830201217</t>
+    <t>3214807</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>8000051306</t>
+  </si>
+  <si>
+    <t>20240913152506</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e397a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115804 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 0.00 discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1990.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f42344553\" title: \"Secrets of nature\" dhId: \"e0c7594c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240910115804Test\" lastName: \"20240910115804Auto\" email: \"20240910115804@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 1990.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-10 08:00:00\" } billingAddress: { firstName: \"20240910115804Test\" lastName: \"20240910115804Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"0703503263\" email: \"20240910115804@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e397a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e715a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152506 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 0.00 discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1990.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f28465634\" title: \"Secrets of nature\" dhId: \"e0c4289c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240913152506Test\" lastName: \"20240913152506Auto\" email: \"20240913152506@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 1990.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-13 08:00:00\" } billingAddress: { firstName: \"20240913152506Test\" lastName: \"20240913152506Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"0703503263\" email: \"20240913152506@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e715a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f42344553</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:04.784</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f28465634</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:06.132</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P1 with Society Discounts with GOA</t>
@@ -204,10 +204,10 @@
     <t>c597beef-e45f-4cc7-b34c-0df812e2ef25</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1800</t>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
   </si>
   <si>
     <t>Society</t>
@@ -225,39 +225,36 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>20240910115809Test</t>
-  </si>
-  <si>
-    <t>20240910115809Auto</t>
-  </si>
-  <si>
-    <t>20240910115809@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP df22f4b2-e5bc-473b-a981-0e5b6701b7af","Using soldTo : df22f4b2-e5bc-473b-a981-0e5b6701b7af","Using billTo: df22f4b2-e5bc-473b-a981-0e5b6701b7af","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214432 for AS order 20240910115809","version":"1.3.5-qa2.100","biId":"3214432"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214432</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214432 for AS order 20240910115809</t>
-  </si>
-  <si>
-    <t>8000047066</t>
-  </si>
-  <si>
-    <t>20240830201219</t>
+    <t>20240913152512Test</t>
+  </si>
+  <si>
+    <t>20240913152512Auto</t>
+  </si>
+  <si>
+    <t>20240913152512@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP f3216a25-7738-4d0b-8721-7ec566dee46d","Using soldTo : f3216a25-7738-4d0b-8721-7ec566dee46d","Using billTo: f3216a25-7738-4d0b-8721-7ec566dee46d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214808 for AS order 20240913152512","version":"1.3.6-qa2.102","biId":"3214808"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214808</t>
+  </si>
+  <si>
+    <t>8000051307</t>
+  </si>
+  <si>
+    <t>20240913152512</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e736a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115809 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2000 appliedDiscount: 200.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 1800 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f77518627\" title: \"Secrets of volcano\" dhId: \"e0c6021c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115809Test\" lastName: \"20240910115809Auto\" email: \"20240910115809@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1800 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115809Test\" lastName: \"20240910115809Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240910115809@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e279a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152512 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2000.00 appliedDiscount: 200.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 1800.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f63135961\" title: \"Secrets of volcano\" dhId: \"e0c2676c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152512Test\" lastName: \"20240913152512Auto\" email: \"20240913152512@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1800.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152512Test\" lastName: \"20240913152512Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240913152512@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f77518627</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:09.568</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f63135961</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:12.670</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P2 with Promo Discounts with GOA</t>
@@ -272,7 +269,7 @@
     <t>d94e6868-e4c6-458d-9f9d-2aa21986e441</t>
   </si>
   <si>
-    <t>2471</t>
+    <t>2471.00</t>
   </si>
   <si>
     <t>2520.42</t>
@@ -296,39 +293,36 @@
     <t>HCK</t>
   </si>
   <si>
-    <t>20240910115814Test</t>
-  </si>
-  <si>
-    <t>20240910115814Auto</t>
-  </si>
-  <si>
-    <t>20240910115814@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 3dc492bd-b807-46a1-b857-806544c58732","Using soldTo : 3dc492bd-b807-46a1-b857-806544c58732","Using billTo: 3dc492bd-b807-46a1-b857-806544c58732","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214433 for AS order 20240910115814","version":"1.3.5-qa2.100","biId":"3214433"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214433</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214433 for AS order 20240910115814</t>
-  </si>
-  <si>
-    <t>8000047068</t>
-  </si>
-  <si>
-    <t>20240830201222</t>
+    <t>20240913152519Test</t>
+  </si>
+  <si>
+    <t>20240913152519Auto</t>
+  </si>
+  <si>
+    <t>20240913152519@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 0c1174ea-b107-4cbb-b50d-b68a6e1fea3b","Using soldTo : 0c1174ea-b107-4cbb-b50d-b68a6e1fea3b","Using billTo: 0c1174ea-b107-4cbb-b50d-b68a6e1fea3b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214809 for AS order 20240913152519","version":"1.3.6-qa2.102","biId":"3214809"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214809</t>
+  </si>
+  <si>
+    <t>8000051308</t>
+  </si>
+  <si>
+    <t>20240913152519</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e633a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115814 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2471 appliedDiscount: 370.65 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 420.07 totalChargedAmount: 2520.42 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"d94e6868-e4c6-458d-9f9d-2aa21986e441\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f22218903\" title: \"Secrets of volcano\" dhId: \"e0c6019c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115814Test\" lastName: \"20240910115814Auto\" email: \"20240910115814@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2520.42 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115814Test\" lastName: \"20240910115814Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240910115814@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e896a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152519 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2471.00 appliedDiscount: 370.65 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 420.07 totalChargedAmount: 2520.42 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"d94e6868-e4c6-458d-9f9d-2aa21986e441\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f29868517\" title: \"Secrets of volcano\" dhId: \"e0c8951c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152519Test\" lastName: \"20240913152519Auto\" email: \"20240913152519@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2520.42 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152519Test\" lastName: \"20240913152519Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240913152519@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f22218903</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:14.152</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f29868517</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:19.271</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P3 with Editorial Discounts without VAT ID with GOA</t>
@@ -361,39 +355,36 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>20240910115818Test</t>
-  </si>
-  <si>
-    <t>20240910115818Auto</t>
-  </si>
-  <si>
-    <t>20240910115818@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 9063b697-1928-4e3d-90fa-f7ad232dac8b","Using soldTo : 9063b697-1928-4e3d-90fa-f7ad232dac8b","Using billTo: 9063b697-1928-4e3d-90fa-f7ad232dac8b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214434 for AS order 20240910115818","version":"1.3.5-qa2.100","biId":"3214434"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214434</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214434 for AS order 20240910115818</t>
-  </si>
-  <si>
-    <t>8000047069</t>
-  </si>
-  <si>
-    <t>20240830201226</t>
+    <t>20240913152525Test</t>
+  </si>
+  <si>
+    <t>20240913152525Auto</t>
+  </si>
+  <si>
+    <t>20240913152525@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP eca27f5f-a78a-4ab1-bb34-f3c8d1ba3b02","Using soldTo : eca27f5f-a78a-4ab1-bb34-f3c8d1ba3b02","Using billTo: eca27f5f-a78a-4ab1-bb34-f3c8d1ba3b02","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214810 for AS order 20240913152525","version":"1.3.6-qa2.102","biId":"3214810"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214810</t>
+  </si>
+  <si>
+    <t>8000051309</t>
+  </si>
+  <si>
+    <t>20240913152525</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e879a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115818 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 570.00 totalChargedAmount: 3420.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f58668703\" title: \"Secrets of volcano\" dhId: \"e0c1838c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115818Test\" lastName: \"20240910115818Auto\" email: \"20240910115818@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3420.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115818Test\" lastName: \"20240910115818Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115818@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e565a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152525 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 570.00 totalChargedAmount: 3420.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f24366246\" title: \"Secrets of volcano\" dhId: \"e0c3236c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152525Test\" lastName: \"20240913152525Auto\" email: \"20240913152525@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3420.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152525Test\" lastName: \"20240913152525Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240913152525@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f58668703</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:18.860</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f24366246</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:25.763</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P3 with Editorial Discounts with VAT ID with GOA</t>
@@ -405,39 +396,36 @@
     <t>DE177813251</t>
   </si>
   <si>
-    <t>20240910115823Test</t>
-  </si>
-  <si>
-    <t>20240910115823Auto</t>
-  </si>
-  <si>
-    <t>20240910115823@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 10867d52-85f0-4ef2-840c-7ff9ded83916","Using soldTo : 10867d52-85f0-4ef2-840c-7ff9ded83916","Using billTo: 10867d52-85f0-4ef2-840c-7ff9ded83916","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214435 for AS order 20240910115823","version":"1.3.5-qa2.100","biId":"3214435"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214435</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214435 for AS order 20240910115823</t>
-  </si>
-  <si>
-    <t>8000047071</t>
-  </si>
-  <si>
-    <t>20240830201231</t>
+    <t>20240913152531Test</t>
+  </si>
+  <si>
+    <t>20240913152531Auto</t>
+  </si>
+  <si>
+    <t>20240913152531@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 77d68615-fa48-4444-951b-f36cba6782a3","Using soldTo : 77d68615-fa48-4444-951b-f36cba6782a3","Using billTo: 77d68615-fa48-4444-951b-f36cba6782a3","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214811 for AS order 20240913152531","version":"1.3.6-qa2.102","biId":"3214811"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214811</t>
+  </si>
+  <si>
+    <t>8000051310</t>
+  </si>
+  <si>
+    <t>20240913152531</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e455a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115823 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 0.00 totalChargedAmount: 2850.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f48718567\" title: \"Secrets of volcano\" dhId: \"e0c4121c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115823Test\" lastName: \"20240910115823Auto\" email: \"20240910115823@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2850.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115823Test\" lastName: \"20240910115823Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115823@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e378a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152531 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 0.00 totalChargedAmount: 2850.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f52090980\" title: \"Secrets of volcano\" dhId: \"e0c3897c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152531Test\" lastName: \"20240913152531Auto\" email: \"20240913152531@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2850.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152531Test\" lastName: \"20240913152531Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240913152531@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f48718567</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:23.928</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f52090980</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:31.818</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P4 with Institutional Discounts with GOA</t>
@@ -467,39 +455,36 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>20240910115829Test</t>
-  </si>
-  <si>
-    <t>20240910115829Auto</t>
-  </si>
-  <si>
-    <t>20240910115829@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 2c48814b-e82d-4ad1-b654-8b3b58197c11","Using soldTo : 2c48814b-e82d-4ad1-b654-8b3b58197c11","Using billTo: 2c48814b-e82d-4ad1-b654-8b3b58197c11","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214436 for AS order 20240910115829","version":"1.3.5-qa2.100","biId":"3214436"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214436</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214436 for AS order 20240910115829</t>
-  </si>
-  <si>
-    <t>8000048250</t>
-  </si>
-  <si>
-    <t>20240830213259</t>
+    <t>20240913152538Test</t>
+  </si>
+  <si>
+    <t>20240913152538Auto</t>
+  </si>
+  <si>
+    <t>20240913152538@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 63dd8302-b3ac-4827-bc38-77a53a02d121","Using soldTo : 63dd8302-b3ac-4827-bc38-77a53a02d121","Using billTo: 63dd8302-b3ac-4827-bc38-77a53a02d121","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214812 for AS order 20240913152538","version":"1.3.6-qa2.102","biId":"3214812"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214812</t>
+  </si>
+  <si>
+    <t>8000051311</t>
+  </si>
+  <si>
+    <t>20240913152538</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e510a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115829 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1500.00 appliedDiscount: 300.00 discountCode: \"ZIP1\" discountType: \"Institutional\" estimatedTax: 216.00 totalChargedAmount: 1416.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"ffc6e5d2-730d-4fe6-9770-7f23c6aeebf9\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80579784\" title: \"Secrets of volcano\" dhId: \"e0c5211c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115829Test\" lastName: \"20240910115829Auto\" email: \"20240910115829@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1416.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115829Test\" lastName: \"20240910115829Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240910115829@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e757a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152538 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1500.00 appliedDiscount: 300.00 discountCode: \"ZIP1\" discountType: \"Institutional\" estimatedTax: 216.00 totalChargedAmount: 1416.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"ffc6e5d2-730d-4fe6-9770-7f23c6aeebf9\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f13121236\" title: \"Secrets of volcano\" dhId: \"e0c1347c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152538Test\" lastName: \"20240913152538Auto\" email: \"20240913152538@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1416.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152538Test\" lastName: \"20240913152538Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240913152538@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80579784</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:29.111</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f13121236</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:38.117</t>
   </si>
   <si>
     <t>CreateCC Order with New Customer P4 with Article Type Discounts with GOA</t>
@@ -514,36 +499,33 @@
     <t>199.00</t>
   </si>
   <si>
-    <t>20240910115833Test</t>
-  </si>
-  <si>
-    <t>20240910115833Auto</t>
-  </si>
-  <si>
-    <t>20240910115833@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 8ac104b5-715f-4a60-9480-ab0cf05ce225","Using soldTo : 8ac104b5-715f-4a60-9480-ab0cf05ce225","Using billTo: 8ac104b5-715f-4a60-9480-ab0cf05ce225","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214437 for AS order 20240910115833","version":"1.3.5-qa2.100","biId":"3214437"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214437</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214437 for AS order 20240910115833</t>
-  </si>
-  <si>
-    <t>20240903182404</t>
+    <t>20240913152544Test</t>
+  </si>
+  <si>
+    <t>20240913152544Auto</t>
+  </si>
+  <si>
+    <t>20240913152544@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP a5718403-e968-4cb6-8751-e30ec5a95471","Using soldTo : a5718403-e968-4cb6-8751-e30ec5a95471","Using billTo: a5718403-e968-4cb6-8751-e30ec5a95471","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214813 for AS order 20240913152544","version":"1.3.6-qa2.102","biId":"3214813"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214813</t>
+  </si>
+  <si>
+    <t>Created Viax order 3214813 for AS order 20240913152544</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e590a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115833 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1990.00 appliedDiscount: 199.00 discountCode: \"ZAPA\" discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1791.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f54870759\" title: \"Secrets of volcano\" dhId: \"e0c1062c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115833Test\" lastName: \"20240910115833Auto\" email: \"20240910115833@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1791.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115833Test\" lastName: \"20240910115833Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"1234567890\" email: \"20240910115833@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e761a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152544 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1990.00 appliedDiscount: 199.00 discountCode: \"ZAPA\" discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1791.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f26159603\" title: \"Secrets of volcano\" dhId: \"e0c3348c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152544Test\" lastName: \"20240913152544Auto\" email: \"20240913152544@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1791.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152544Test\" lastName: \"20240913152544Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"1234567890\" email: \"20240913152544@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f54870759</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:33.928</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f26159603</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:44.422</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P1 with Promo Discounts with GOA</t>
@@ -561,39 +543,39 @@
     <t>316.00</t>
   </si>
   <si>
-    <t>20240910115838Test</t>
-  </si>
-  <si>
-    <t>20240910115838Auto</t>
-  </si>
-  <si>
-    <t>20240910115838@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Using soldTo : 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Using billTo: 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214438 for AS order 20240910115838","version":"1.3.5-qa2.100","biId":"3214438"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214438</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214438 for AS order 20240910115838</t>
-  </si>
-  <si>
-    <t>8000047057</t>
-  </si>
-  <si>
-    <t>20240830201245</t>
+    <t>20240913152550Test</t>
+  </si>
+  <si>
+    <t>20240913152550Auto</t>
+  </si>
+  <si>
+    <t>20240913152550@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 586d6b9c-b340-4802-b545-2593342f4b7d","Using soldTo : 586d6b9c-b340-4802-b545-2593342f4b7d","Using billTo: 586d6b9c-b340-4802-b545-2593342f4b7d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214814 for AS order 20240913152550","version":"1.3.6-qa2.102","biId":"3214814"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214814</t>
+  </si>
+  <si>
+    <t>Invoiced</t>
+  </si>
+  <si>
+    <t>8000051315</t>
+  </si>
+  <si>
+    <t>20240913152550</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e130a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115838 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 316.00 totalChargedAmount: 1896.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f61158062\" title: \"Secrets of nature\" dhId: \"e0c4342c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115838Test\" lastName: \"20240910115838Auto\" email: \"20240910115838@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240910115838Test\" lastName: \"20240910115838Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240910115838@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e130a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152550 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 316.00 totalChargedAmount: 1896.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f72446264\" title: \"Secrets of nature\" dhId: \"e0c2964c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152550Test\" lastName: \"20240913152550Auto\" email: \"20240913152550@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240913152550Test\" lastName: \"20240913152550Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240913152550@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f61158062</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:38.943</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f72446264</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:50.695</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
@@ -608,39 +590,36 @@
     <t>534.00</t>
   </si>
   <si>
-    <t>20240910115844Test</t>
-  </si>
-  <si>
-    <t>20240910115844Auto</t>
-  </si>
-  <si>
-    <t>20240910115844@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 91878870-7e25-4169-930f-5c827c7596cb","Using soldTo : 91878870-7e25-4169-930f-5c827c7596cb","Using billTo: 91878870-7e25-4169-930f-5c827c7596cb","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214439 for AS order 20240910115844","version":"1.3.5-qa2.100","biId":"3214439"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214439</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214439 for AS order 20240910115844</t>
-  </si>
-  <si>
-    <t>8000047058</t>
-  </si>
-  <si>
-    <t>20240830201247</t>
+    <t>20240913152557Test</t>
+  </si>
+  <si>
+    <t>20240913152557Auto</t>
+  </si>
+  <si>
+    <t>20240913152557@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 420fe802-df5b-43bd-8b1b-30b878577a20","Using soldTo : 420fe802-df5b-43bd-8b1b-30b878577a20","Using billTo: 420fe802-df5b-43bd-8b1b-30b878577a20","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214815 for AS order 20240913152557","version":"1.3.6-qa2.102","biId":"3214815"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214815</t>
+  </si>
+  <si>
+    <t>8000051316</t>
+  </si>
+  <si>
+    <t>20240913152557</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e264a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115844 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 534.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 249.00 totalChargedAmount: 1495.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f71674410\" title: \"Secrets of nature\" dhId: \"e0c2710c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115844Test\" lastName: \"20240910115844Auto\" email: \"20240910115844@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240910115844Test\" lastName: \"20240910115844Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910115844@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e264a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e522a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152557 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 534.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 249.00 totalChargedAmount: 1495.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f78754284\" title: \"Secrets of nature\" dhId: \"e0c6798c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152557Test\" lastName: \"20240913152557Auto\" email: \"20240913152557@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240913152557Test\" lastName: \"20240913152557Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240913152557@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e522a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f71674410</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:44.149</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f78754284</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:25:57.273</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
@@ -655,39 +634,36 @@
     <t>296.20</t>
   </si>
   <si>
-    <t>20240910115849Test</t>
-  </si>
-  <si>
-    <t>20240910115849Auto</t>
-  </si>
-  <si>
-    <t>20240910115849@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 24f60f23-cc4f-47f2-968f-f490d553a6ee","Using soldTo : 24f60f23-cc4f-47f2-968f-f490d553a6ee","Using billTo: 24f60f23-cc4f-47f2-968f-f490d553a6ee","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214440 for AS order 20240910115849","version":"1.3.5-qa2.100","biId":"3214440"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214440</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214440 for AS order 20240910115849</t>
-  </si>
-  <si>
-    <t>8000047059</t>
-  </si>
-  <si>
-    <t>20240830201258</t>
+    <t>20240913152603Test</t>
+  </si>
+  <si>
+    <t>20240913152603Auto</t>
+  </si>
+  <si>
+    <t>20240913152603@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 30ddf33b-90e1-4716-ab78-26f482d5f92d","Using soldTo : 30ddf33b-90e1-4716-ab78-26f482d5f92d","Using billTo: 30ddf33b-90e1-4716-ab78-26f482d5f92d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214816 for AS order 20240913152603","version":"1.3.6-qa2.102","biId":"3214816"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214816</t>
+  </si>
+  <si>
+    <t>8000051319</t>
+  </si>
+  <si>
+    <t>20240913152603</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e692a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115849 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2108.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 296.20 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f57542598\" title: \"Secrets of nature\" dhId: \"e0c4241c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115849Test\" lastName: \"20240910115849Auto\" email: \"20240910115849@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2108.00, billingAddress: { firstName: \"20240910115849Test\" lastName: \"20240910115849Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115849@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e692a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e484a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152603 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2108.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 296.20 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f48350585\" title: \"Secrets of nature\" dhId: \"e0c4827c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152603Test\" lastName: \"20240913152603Auto\" email: \"20240913152603@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2108.00, billingAddress: { firstName: \"20240913152603Test\" lastName: \"20240913152603Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152603@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e484a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f57542598</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:49.045</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f48350585</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:03.897</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
@@ -699,83 +675,77 @@
     <t>DE129517720</t>
   </si>
   <si>
-    <t>20240910115854Test</t>
-  </si>
-  <si>
-    <t>20240910115854Auto</t>
-  </si>
-  <si>
-    <t>20240910115854@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 35a279e8-383b-4e08-9542-592c249dcdcd","Using soldTo : 35a279e8-383b-4e08-9542-592c249dcdcd","Using billTo: 35a279e8-383b-4e08-9542-592c249dcdcd","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214441 for AS order 20240910115854","version":"1.3.5-qa2.100","biId":"3214441"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214441</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214441 for AS order 20240910115854</t>
-  </si>
-  <si>
-    <t>8000047060</t>
-  </si>
-  <si>
-    <t>20240830201301</t>
+    <t>20240913152610Test</t>
+  </si>
+  <si>
+    <t>20240913152610Auto</t>
+  </si>
+  <si>
+    <t>20240913152610@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP fb021606-2928-4de6-a9e1-b7ab17885e53","Using soldTo : fb021606-2928-4de6-a9e1-b7ab17885e53","Using billTo: fb021606-2928-4de6-a9e1-b7ab17885e53","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214817 for AS order 20240913152610","version":"1.3.6-qa2.102","biId":"3214817"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214817</t>
+  </si>
+  <si>
+    <t>8000051321</t>
+  </si>
+  <si>
+    <t>20240913152610</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e186a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115854 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1680.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE129517720\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f41852039\" title: \"Secrets of nature\" dhId: \"e0c2519c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115854Test\" lastName: \"20240910115854Auto\" email: \"20240910115854@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1680.00, billingAddress: { firstName: \"20240910115854Test\" lastName: \"20240910115854Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115854@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e186a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e689a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152610 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1680.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE129517720\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f29403408\" title: \"Secrets of nature\" dhId: \"e0c3444c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152610Test\" lastName: \"20240913152610Auto\" email: \"20240913152610@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1680.00, billingAddress: { firstName: \"20240913152610Test\" lastName: \"20240913152610Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152610@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e689a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f41852039</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:54.318</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f29403408</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:10.317</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
   </si>
   <si>
-    <t>2112</t>
+    <t>2112.00</t>
   </si>
   <si>
     <t>322.20</t>
   </si>
   <si>
-    <t>20240910115859Test</t>
-  </si>
-  <si>
-    <t>20240910115859Auto</t>
-  </si>
-  <si>
-    <t>20240910115859@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP c981bbba-6b65-47e0-8024-73415e7f050d","Using soldTo : c981bbba-6b65-47e0-8024-73415e7f050d","Using billTo: c981bbba-6b65-47e0-8024-73415e7f050d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214442 for AS order 20240910115859","version":"1.3.5-qa2.100","biId":"3214442"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214442</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214442 for AS order 20240910115859</t>
-  </si>
-  <si>
-    <t>8000047061</t>
-  </si>
-  <si>
-    <t>20240830201307</t>
+    <t>20240913152616Test</t>
+  </si>
+  <si>
+    <t>20240913152616Auto</t>
+  </si>
+  <si>
+    <t>20240913152616@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 5d172eee-ce10-406f-ae72-af4985b95c9e","Using soldTo : 5d172eee-ce10-406f-ae72-af4985b95c9e","Using billTo: 5d172eee-ce10-406f-ae72-af4985b95c9e","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214818 for AS order 20240913152617","version":"1.3.6-qa2.102","biId":"3214818"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214818</t>
+  </si>
+  <si>
+    <t>8000051322</t>
+  </si>
+  <si>
+    <t>20240913152617</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e556a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115859 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 322.20 totalChargedAmount: 2112 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f98556113\" title: \"Secrets of nature\" dhId: \"e0c5486c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115859Test\" lastName: \"20240910115859Auto\" email: \"20240910115859@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115859Test\" lastName: \"20240910115859Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910115859@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e556a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e414a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152617 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 322.20 totalChargedAmount: 2112.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f65048374\" title: \"Secrets of nature\" dhId: \"e0c3743c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152616Test\" lastName: \"20240913152616Auto\" email: \"20240913152616@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240913152616Test\" lastName: \"20240913152616Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240913152616@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e414a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f98556113</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:59.197</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f65048374</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:16.960</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P4 with Article Discounts with GOA</t>
@@ -784,39 +754,36 @@
     <t>1790.00</t>
   </si>
   <si>
-    <t>20240910115903Test</t>
-  </si>
-  <si>
-    <t>20240910115903Auto</t>
-  </si>
-  <si>
-    <t>20240910115903@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 456bbd52-5ec5-44c0-89f9-177ee3d38176","Using soldTo : 456bbd52-5ec5-44c0-89f9-177ee3d38176","Using billTo: 456bbd52-5ec5-44c0-89f9-177ee3d38176","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214443 for AS order 20240910115903","version":"1.3.5-qa2.100","biId":"3214443"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214443</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214443 for AS order 20240910115903</t>
-  </si>
-  <si>
-    <t>8000047062</t>
-  </si>
-  <si>
-    <t>20240830201318</t>
+    <t>20240913152623Test</t>
+  </si>
+  <si>
+    <t>20240913152623Auto</t>
+  </si>
+  <si>
+    <t>20240913152623@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 40490485-88d3-4662-8b6a-68ac89b45059","Using soldTo : 40490485-88d3-4662-8b6a-68ac89b45059","Using billTo: 40490485-88d3-4662-8b6a-68ac89b45059","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214819 for AS order 20240913152623","version":"1.3.6-qa2.102","biId":"3214819"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214819</t>
+  </si>
+  <si>
+    <t>8000051324</t>
+  </si>
+  <si>
+    <t>20240913152623</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e841a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115903 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f97513411\" title: \"Secrets of nature\" dhId: \"e0c4451c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115903Test\" lastName: \"20240910115903Auto\" email: \"20240910115903@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115903Test\" lastName: \"20240910115903Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"06667778888\" email: \"20240910115903@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e841a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e920a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152623 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f43897619\" title: \"Secrets of nature\" dhId: \"e0c3438c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152623Test\" lastName: \"20240913152623Auto\" email: \"20240913152623@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240913152623Test\" lastName: \"20240913152623Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"06667778888\" email: \"20240913152623@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e920a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f97513411</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:03.695</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f43897619</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:23.518</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P1 with Society Discounts with GOA</t>
@@ -825,39 +792,39 @@
     <t>Proforma</t>
   </si>
   <si>
-    <t>20240830201326Test</t>
-  </si>
-  <si>
-    <t>20240830201326Auto</t>
-  </si>
-  <si>
-    <t>20240830201326@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d8701e82-e7ab-4844-b226-b6fda27a479d","Using soldTo : d8701e82-e7ab-4844-b226-b6fda27a479d","Using billTo: d8701e82-e7ab-4844-b226-b6fda27a479d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214305 for AS order 20240830201326","version":"1.3.5-qa2.98","biId":"3214305"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214305</t>
+    <t>20240913152629Test</t>
+  </si>
+  <si>
+    <t>20240913152629Auto</t>
+  </si>
+  <si>
+    <t>20240913152629@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 014b8293-2157-4659-b8bd-fcdd7ad76489","Using soldTo : 014b8293-2157-4659-b8bd-fcdd7ad76489","Using billTo: 014b8293-2157-4659-b8bd-fcdd7ad76489","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214820 for AS order 20240913152630","version":"1.3.6-qa2.102","biId":"3214820"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214820</t>
   </si>
   <si>
     <t>Proforma Created</t>
   </si>
   <si>
-    <t>8000047063</t>
-  </si>
-  <si>
-    <t>20240830201326</t>
+    <t>8000051325</t>
+  </si>
+  <si>
+    <t>20240913152630</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e539a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240830201326 submittedDate: \"2024-08-30T15:00:14-05\" createdDate: \"2024-08-30T15:00:14-05\" cancelDate: \"2024-08-30T15:00:14-05\" paymentDate: \"2024-08-30T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-08-30T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2000 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1800 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f47286826\" title: \"Secrets of nature\" dhId: \"e0c7949c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240830201326Test\" lastName: \"20240830201326Auto\" email: \"20240830201326@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2000, billingAddress: { firstName: \"20240830201326Test\" lastName: \"20240830201326Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240830201326@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e539a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e588a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152630 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2000.00 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1800.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f38717298\" title: \"Secrets of nature\" dhId: \"e0c2257c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152629Test\" lastName: \"20240913152629Auto\" email: \"20240913152629@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2000.00, billingAddress: { firstName: \"20240913152629Test\" lastName: \"20240913152629Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240913152629@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e588a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f47286826</t>
-  </si>
-  <si>
-    <t>2024-08-30 20:13:26.567</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f38717298</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:29.977</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P2 with Promo Discounts with GOA</t>
@@ -875,39 +842,36 @@
     <t>236.00</t>
   </si>
   <si>
-    <t>20240910115913Test</t>
-  </si>
-  <si>
-    <t>20240910115913Auto</t>
-  </si>
-  <si>
-    <t>20240910115913@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP dd90c5c8-45f5-4a7e-8633-d577523f1603","Using soldTo : dd90c5c8-45f5-4a7e-8633-d577523f1603","Using billTo: dd90c5c8-45f5-4a7e-8633-d577523f1603","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214445 for AS order 20240910115913","version":"1.3.5-qa2.100","biId":"3214445"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214445</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214445 for AS order 20240910115913</t>
-  </si>
-  <si>
-    <t>8000047064</t>
-  </si>
-  <si>
-    <t>20240830201332</t>
+    <t>20240913152636Test</t>
+  </si>
+  <si>
+    <t>20240913152636Auto</t>
+  </si>
+  <si>
+    <t>20240913152636@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP b6396d9a-82c8-4de0-8936-6104d9d760ce","Using soldTo : b6396d9a-82c8-4de0-8936-6104d9d760ce","Using billTo: b6396d9a-82c8-4de0-8936-6104d9d760ce","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214821 for AS order 20240913152636","version":"1.3.6-qa2.102","biId":"3214821"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214821</t>
+  </si>
+  <si>
+    <t>8000051327</t>
+  </si>
+  <si>
+    <t>20240913152636</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e396a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115913 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f12243136\" title: \"Secrets of nature\" dhId: \"e0c7228c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115913Test\" lastName: \"20240910115913Auto\" email: \"20240910115913@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115913Test\" lastName: \"20240910115913Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910115913@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e396a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e878a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152636 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f17330230\" title: \"Secrets of nature\" dhId: \"e0c4299c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152636Test\" lastName: \"20240913152636Auto\" email: \"20240913152636@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240913152636Test\" lastName: \"20240913152636Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240913152636@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e878a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f12243136</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:13.733</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f17330230</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:36.465</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
@@ -916,77 +880,71 @@
     <t>944.00</t>
   </si>
   <si>
-    <t>20240910115918Test</t>
-  </si>
-  <si>
-    <t>20240910115918Auto</t>
-  </si>
-  <si>
-    <t>20240910115918@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP e6eef6ce-e4f7-4354-9527-8deafc856cd4","Using soldTo : e6eef6ce-e4f7-4354-9527-8deafc856cd4","Using billTo: e6eef6ce-e4f7-4354-9527-8deafc856cd4","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214446 for AS order 20240910115918","version":"1.3.5-qa2.100","biId":"3214446"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214446</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214446 for AS order 20240910115918</t>
-  </si>
-  <si>
-    <t>8000047067</t>
-  </si>
-  <si>
-    <t>20240830201336</t>
+    <t>20240913152642Test</t>
+  </si>
+  <si>
+    <t>20240913152642Auto</t>
+  </si>
+  <si>
+    <t>20240913152642@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP e955d2c4-92ec-4ceb-a14b-8b03e9e882bb","Using soldTo : e955d2c4-92ec-4ceb-a14b-8b03e9e882bb","Using billTo: e955d2c4-92ec-4ceb-a14b-8b03e9e882bb","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214822 for AS order 20240913152643","version":"1.3.6-qa2.102","biId":"3214822"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214822</t>
+  </si>
+  <si>
+    <t>8000051329</t>
+  </si>
+  <si>
+    <t>20240913152643</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e984a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115918 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 944.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f24795408\" title: \"Secrets of nature\" dhId: \"e0c9059c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115918Test\" lastName: \"20240910115918Auto\" email: \"20240910115918@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115918Test\" lastName: \"20240910115918Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115918@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e984a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e842a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152643 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 944.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f63558790\" title: \"Secrets of nature\" dhId: \"e0c2409c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152642Test\" lastName: \"20240913152642Auto\" email: \"20240913152642@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240913152642Test\" lastName: \"20240913152642Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152642@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e842a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f24795408</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:18.547</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f63558790</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:42.983</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
   </si>
   <si>
-    <t>20240910115923Test</t>
-  </si>
-  <si>
-    <t>20240910115923Auto</t>
-  </si>
-  <si>
-    <t>20240910115923@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 14e333ae-5240-4a81-a592-d46dadb6f84d","Using soldTo : 14e333ae-5240-4a81-a592-d46dadb6f84d","Using billTo: 14e333ae-5240-4a81-a592-d46dadb6f84d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214447 for AS order 20240910115923","version":"1.3.5-qa2.100","biId":"3214447"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214447</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214447 for AS order 20240910115923</t>
-  </si>
-  <si>
-    <t>8000047070</t>
-  </si>
-  <si>
-    <t>20240830201344</t>
+    <t>20240913152649Test</t>
+  </si>
+  <si>
+    <t>20240913152649Auto</t>
+  </si>
+  <si>
+    <t>20240913152649@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP e7936502-1144-402c-8845-1984533d643d","Using soldTo : e7936502-1144-402c-8845-1984533d643d","Using billTo: e7936502-1144-402c-8845-1984533d643d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214823 for AS order 20240913152649","version":"1.3.6-qa2.102","biId":"3214823"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214823</t>
+  </si>
+  <si>
+    <t>8000051331</t>
+  </si>
+  <si>
+    <t>20240913152649</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115923 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f54281415\" title: \"Secrets of nature\" dhId: \"e0c3385c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115923Test\" lastName: \"20240910115923Auto\" email: \"20240910115923@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115923Test\" lastName: \"20240910115923Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115923@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152649 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80282216\" title: \"Secrets of nature\" dhId: \"e0c4796c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152649Test\" lastName: \"20240913152649Auto\" email: \"20240913152649@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240913152649Test\" lastName: \"20240913152649Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152649@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f54281415</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:23.146</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f80282216</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:49.285</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P4 with Institutonal Discounts with GOA</t>
@@ -1001,77 +959,71 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>20240910115928Test</t>
-  </si>
-  <si>
-    <t>20240910115928Auto</t>
-  </si>
-  <si>
-    <t>20240910115928@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 61488f36-6ac2-47af-8efa-98d088b79bc8","Using soldTo : 61488f36-6ac2-47af-8efa-98d088b79bc8","Using billTo: 61488f36-6ac2-47af-8efa-98d088b79bc8","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214448 for AS order 20240910115928","version":"1.3.5-qa2.100","biId":"3214448"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214448</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214448 for AS order 20240910115928</t>
-  </si>
-  <si>
-    <t>8000047072</t>
-  </si>
-  <si>
-    <t>20240830201357</t>
+    <t>20240913152655Test</t>
+  </si>
+  <si>
+    <t>20240913152655Auto</t>
+  </si>
+  <si>
+    <t>20240913152655@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 22f8d57b-d9e4-4e33-a76f-6bf5c070b7b9","Using soldTo : 22f8d57b-d9e4-4e33-a76f-6bf5c070b7b9","Using billTo: 22f8d57b-d9e4-4e33-a76f-6bf5c070b7b9","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214824 for AS order 20240913152655","version":"1.3.6-qa2.102","biId":"3214824"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214824</t>
+  </si>
+  <si>
+    <t>8000051333</t>
+  </si>
+  <si>
+    <t>20240913152655</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e738a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115928 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 800.00 appliedDiscount: 160.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 0.00 totalChargedAmount: 640.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f47679190\" title: \"Secrets of nature\" dhId: \"e0c3614c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115928Test\" lastName: \"20240910115928Auto\" email: \"20240910115928@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 800.00, billingAddress: { firstName: \"20240910115928Test\" lastName: \"20240910115928Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910115928@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e738a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e233a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152655 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 800.00 appliedDiscount: 160.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 0.00 totalChargedAmount: 640.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f43148145\" title: \"Secrets of nature\" dhId: \"e0c2708c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152655Test\" lastName: \"20240913152655Auto\" email: \"20240913152655@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 800.00, billingAddress: { firstName: \"20240913152655Test\" lastName: \"20240913152655Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240913152655@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e233a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f47679190</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:28.076</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f43148145</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:26:55.520</t>
   </si>
   <si>
     <t>Create Proforma Order with New Customer P4 with Article Discounts with GOA</t>
   </si>
   <si>
-    <t>20240910115933Test</t>
-  </si>
-  <si>
-    <t>20240910115933Auto</t>
-  </si>
-  <si>
-    <t>20240910115933@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP f79b72e8-d39b-45ef-acbd-df075fd2ef03","Using soldTo : f79b72e8-d39b-45ef-acbd-df075fd2ef03","Using billTo: f79b72e8-d39b-45ef-acbd-df075fd2ef03","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214449 for AS order 20240910115933","version":"1.3.5-qa2.100","biId":"3214449"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214449</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214449 for AS order 20240910115933</t>
-  </si>
-  <si>
-    <t>8000047074</t>
-  </si>
-  <si>
-    <t>20240830201359</t>
+    <t>20240913152702Test</t>
+  </si>
+  <si>
+    <t>20240913152702Auto</t>
+  </si>
+  <si>
+    <t>20240913152702@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1cd59a48-f7f2-442a-a057-889a1aa80d44","Using soldTo : 1cd59a48-f7f2-442a-a057-889a1aa80d44","Using billTo: 1cd59a48-f7f2-442a-a057-889a1aa80d44","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214825 for AS order 20240913152702","version":"1.3.6-qa2.102","biId":"3214825"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214825</t>
+  </si>
+  <si>
+    <t>8000051335</t>
+  </si>
+  <si>
+    <t>20240913152702</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115933 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f94529929\" title: \"Secrets of nature\" dhId: \"e0c6198c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115933Test\" lastName: \"20240910115933Auto\" email: \"20240910115933@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115933Test\" lastName: \"20240910115933Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240910115933@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152702 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f57415306\" title: \"Secrets of nature\" dhId: \"e0c6804c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152702Test\" lastName: \"20240913152702Auto\" email: \"20240913152702@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240913152702Test\" lastName: \"20240913152702Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240913152702@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f94529929</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:33.141</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f57415306</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:02.312</t>
   </si>
   <si>
     <t>Create Order with Society Discount (%) P1 with CC HOA Order</t>
@@ -1092,39 +1044,36 @@
     <t>430.00</t>
   </si>
   <si>
-    <t>20240910115937Test</t>
-  </si>
-  <si>
-    <t>20240910115937Auto</t>
-  </si>
-  <si>
-    <t>20240910115937@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Using soldTo : 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Using billTo: 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214450 for AS order 20240910115938","version":"1.3.5-qa2.100","biId":"3214450"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214450</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214450 for AS order 20240910115938</t>
-  </si>
-  <si>
-    <t>8000048246</t>
-  </si>
-  <si>
-    <t>20240830165022</t>
+    <t>20240913152708Test</t>
+  </si>
+  <si>
+    <t>20240913152708Auto</t>
+  </si>
+  <si>
+    <t>20240913152708@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP ed3dd24f-6ce3-4e2b-9a98-58c324c5bea1","Using soldTo : ed3dd24f-6ce3-4e2b-9a98-58c324c5bea1","Using billTo: ed3dd24f-6ce3-4e2b-9a98-58c324c5bea1","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214826 for AS order 20240913152708","version":"1.3.6-qa2.102","biId":"3214826"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214826</t>
+  </si>
+  <si>
+    <t>8000051323</t>
+  </si>
+  <si>
+    <t>20240913152708</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e220a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115938 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3870.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f27420288\" title: \"Secrets of volcano\" dhId: \"e0c1188c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115937Test\" lastName: \"20240910115937Auto\" email: \"20240910115937@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3870.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115937Test\" lastName: \"20240910115937Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240910115937@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e247a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152708 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3870.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f91079741\" title: \"Secrets of volcano\" dhId: \"e0c8715c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152708Test\" lastName: \"20240913152708Auto\" email: \"20240913152708@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3870.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152708Test\" lastName: \"20240913152708Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240913152708@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f27420288</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:37.969</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f91079741</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:08.867</t>
   </si>
   <si>
     <t>Create Order with Promo Discount (%) P2 with CC HOA Order</t>
@@ -1145,39 +1094,36 @@
     <t>307.70</t>
   </si>
   <si>
-    <t>20240910115942Test</t>
-  </si>
-  <si>
-    <t>20240910115942Auto</t>
-  </si>
-  <si>
-    <t>20240910115942@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 565f1c25-bc9a-478a-b650-e17ec5147cd7","Using soldTo : 565f1c25-bc9a-478a-b650-e17ec5147cd7","Using billTo: 565f1c25-bc9a-478a-b650-e17ec5147cd7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214451 for AS order 20240910115942","version":"1.3.5-qa2.100","biId":"3214451"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214451</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214451 for AS order 20240910115942</t>
-  </si>
-  <si>
-    <t>8000048247</t>
-  </si>
-  <si>
-    <t>20240830165024</t>
+    <t>20240913152715Test</t>
+  </si>
+  <si>
+    <t>20240913152715Auto</t>
+  </si>
+  <si>
+    <t>20240913152715@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 60b185e9-a71e-46e2-a66e-be4d606cf9b9","Using soldTo : 60b185e9-a71e-46e2-a66e-be4d606cf9b9","Using billTo: 60b185e9-a71e-46e2-a66e-be4d606cf9b9","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214827 for AS order 20240913152715","version":"1.3.6-qa2.102","biId":"3214827"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214827</t>
+  </si>
+  <si>
+    <t>8000051320</t>
+  </si>
+  <si>
+    <t>20240913152715</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e324a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115942 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3077.00 appliedDiscount: 307.70 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 533.86 totalChargedAmount: 3323.16 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f69854558\" title: \"Secrets of volcano\" dhId: \"e0c8382c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115942Test\" lastName: \"20240910115942Auto\" email: \"20240910115942@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3323.16 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115942Test\" lastName: \"20240910115942Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240910115942@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e957a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152715 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3077.00 appliedDiscount: 307.70 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 533.86 totalChargedAmount: 3323.16 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f48171014\" title: \"Secrets of volcano\" dhId: \"e0c1508c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152715Test\" lastName: \"20240913152715Auto\" email: \"20240913152715@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3323.16 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152715Test\" lastName: \"20240913152715Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240913152715@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f69854558</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:42.963</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f48171014</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:15.314</t>
   </si>
   <si>
     <t>Create Order with Society Discount (Value) P3 with CC HOA Order with VAT ID</t>
@@ -1186,51 +1132,48 @@
     <t>3627.00</t>
   </si>
   <si>
-    <t>3000</t>
+    <t>3000.00</t>
   </si>
   <si>
     <t>627.00</t>
   </si>
   <si>
-    <t>20240910115948Test</t>
-  </si>
-  <si>
-    <t>20240910115948Auto</t>
-  </si>
-  <si>
-    <t>20240910115948@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Using soldTo : a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Using billTo: a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214452 for AS order 20240910115948","version":"1.3.5-qa2.100","biId":"3214452"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214452</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214452 for AS order 20240910115948</t>
-  </si>
-  <si>
-    <t>8000048248</t>
-  </si>
-  <si>
-    <t>20240830165027</t>
+    <t>20240913152721Test</t>
+  </si>
+  <si>
+    <t>20240913152721Auto</t>
+  </si>
+  <si>
+    <t>20240913152721@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 41ffe612-cb9c-4ec5-9c82-f24cbba197d9","Using soldTo : 41ffe612-cb9c-4ec5-9c82-f24cbba197d9","Using billTo: 41ffe612-cb9c-4ec5-9c82-f24cbba197d9","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214828 for AS order 20240913152721","version":"1.3.6-qa2.102","biId":"3214828"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214828</t>
+  </si>
+  <si>
+    <t>8000051318</t>
+  </si>
+  <si>
+    <t>20240913152721</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e316a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115948 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3000 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80778610\" title: \"Secrets of volcano\" dhId: \"e0c7265c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115948Test\" lastName: \"20240910115948Auto\" email: \"20240910115948@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3000 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115948Test\" lastName: \"20240910115948Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115948@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e591a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152721 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3000.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f91110390\" title: \"Secrets of volcano\" dhId: \"e0c9486c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152721Test\" lastName: \"20240913152721Auto\" email: \"20240913152721@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3000.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152721Test\" lastName: \"20240913152721Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240913152721@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80778610</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:48.225</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f91110390</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:21.835</t>
   </si>
   <si>
     <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
   </si>
   <si>
-    <t>3600</t>
+    <t>3600.00</t>
   </si>
   <si>
     <t>ZPV1</t>
@@ -1239,39 +1182,36 @@
     <t>600.00</t>
   </si>
   <si>
-    <t>20240910115953Test</t>
-  </si>
-  <si>
-    <t>20240910115953Auto</t>
-  </si>
-  <si>
-    <t>20240910115953@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Using soldTo : 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Using billTo: 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214453 for AS order 20240910115953","version":"1.3.5-qa2.100","biId":"3214453"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214453</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214453 for AS order 20240910115953</t>
-  </si>
-  <si>
-    <t>8000048249</t>
-  </si>
-  <si>
-    <t>20240830165030</t>
+    <t>20240913152728Test</t>
+  </si>
+  <si>
+    <t>20240913152728Auto</t>
+  </si>
+  <si>
+    <t>20240913152728@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 8fdf02c1-bee1-409b-8af0-25ee952c105c","Using soldTo : 8fdf02c1-bee1-409b-8af0-25ee952c105c","Using billTo: 8fdf02c1-bee1-409b-8af0-25ee952c105c","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214829 for AS order 20240913152728","version":"1.3.6-qa2.102","biId":"3214829"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214829</t>
+  </si>
+  <si>
+    <t>8000051317</t>
+  </si>
+  <si>
+    <t>20240913152728</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e189a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115953 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZPV1\" discountType: \"WileyPromoCode\" estimatedTax: 600.00 totalChargedAmount: 3600 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80536408\" title: \"Secrets of volcano\" dhId: \"e0c1914c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115953Test\" lastName: \"20240910115953Auto\" email: \"20240910115953@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3600 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115953Test\" lastName: \"20240910115953Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115953@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e918a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152728 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZPV1\" discountType: \"WileyPromoCode\" estimatedTax: 600.00 totalChargedAmount: 3600.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f73932516\" title: \"Secrets of volcano\" dhId: \"e0c5314c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152728Test\" lastName: \"20240913152728Auto\" email: \"20240913152728@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3600.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152728Test\" lastName: \"20240913152728Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240913152728@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80536408</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:53.175</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f73932516</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:28.139</t>
   </si>
   <si>
     <t>Create Order with Institutional Discount P4 with CC HOA Order</t>
@@ -1289,39 +1229,36 @@
     <t>696.60</t>
   </si>
   <si>
-    <t>20240910115958Test</t>
-  </si>
-  <si>
-    <t>20240910115958Auto</t>
-  </si>
-  <si>
-    <t>20240910115958@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Using soldTo : 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Using billTo: 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214454 for AS order 20240910115958","version":"1.3.5-qa2.100","biId":"3214454"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214454</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214454 for AS order 20240910115958</t>
-  </si>
-  <si>
-    <t>8000051208</t>
-  </si>
-  <si>
-    <t>20240830165034</t>
+    <t>20240913152734Test</t>
+  </si>
+  <si>
+    <t>20240913152734Auto</t>
+  </si>
+  <si>
+    <t>20240913152734@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 8734ccd4-6cce-4104-9d7b-ca92df3b28a3","Using soldTo : 8734ccd4-6cce-4104-9d7b-ca92df3b28a3","Using billTo: 8734ccd4-6cce-4104-9d7b-ca92df3b28a3","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214830 for AS order 20240913152734","version":"1.3.6-qa2.102","biId":"3214830"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214830</t>
+  </si>
+  <si>
+    <t>8000051314</t>
+  </si>
+  <si>
+    <t>20240913152734</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e257a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115958 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZIV1\" discountType: \"Institutional\" estimatedTax: 696.60 totalChargedAmount: 4566.60 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f65707886\" title: \"Secrets of volcano\" dhId: \"e0c4902c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115958Test\" lastName: \"20240910115958Auto\" email: \"20240910115958@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4566.60 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115958Test\" lastName: \"20240910115958Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240910115958@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e722a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152734 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZIV1\" discountType: \"Institutional\" estimatedTax: 696.60 totalChargedAmount: 4566.60 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f25531437\" title: \"Secrets of volcano\" dhId: \"e0c8327c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152734Test\" lastName: \"20240913152734Auto\" email: \"20240913152734@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4566.60 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152734Test\" lastName: \"20240913152734Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240913152734@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f65707886</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:58.076</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f25531437</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:34.407</t>
   </si>
   <si>
     <t>Create Order with Custom Discount P4 with CC HOA Order</t>
@@ -1336,39 +1273,36 @@
     <t>ZCDA</t>
   </si>
   <si>
-    <t>20240910120003Test</t>
-  </si>
-  <si>
-    <t>20240910120003Auto</t>
-  </si>
-  <si>
-    <t>20240910120003@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Using soldTo : 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Using billTo: 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214455 for AS order 20240910120003","version":"1.3.5-qa2.100","biId":"3214455"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214455</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214455 for AS order 20240910120003</t>
-  </si>
-  <si>
-    <t>8000051209</t>
-  </si>
-  <si>
-    <t>20240830165039</t>
+    <t>20240913152741Test</t>
+  </si>
+  <si>
+    <t>20240913152741Auto</t>
+  </si>
+  <si>
+    <t>20240913152741@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 0b913e3b-ee45-4730-8f7f-ec9ce55df6fc","Using soldTo : 0b913e3b-ee45-4730-8f7f-ec9ce55df6fc","Using billTo: 0b913e3b-ee45-4730-8f7f-ec9ce55df6fc","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214831 for AS order 20240913152741","version":"1.3.6-qa2.102","biId":"3214831"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214831</t>
+  </si>
+  <si>
+    <t>8000051312</t>
+  </si>
+  <si>
+    <t>20240913152741</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e466a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120003 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 300.00 discountCode: \"ZCDA\" discountType: \"Custom\" estimatedTax: 0.00 totalChargedAmount: 4000.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f39308294\" title: \"Secrets of volcano\" dhId: \"e0c5074c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910120003Test\" lastName: \"20240910120003Auto\" email: \"20240910120003@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4000.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910120003Test\" lastName: \"20240910120003Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"1234567890\" email: \"20240910120003@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e234a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-13T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152741 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 300.00 discountCode: \"ZCDA\" discountType: \"Custom\" estimatedTax: 0.00 totalChargedAmount: 4000.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f93221698\" title: \"Secrets of volcano\" dhId: \"e0c4689c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240913152741Test\" lastName: \"20240913152741Auto\" email: \"20240913152741@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4000.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240913152741Test\" lastName: \"20240913152741Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"1234567890\" email: \"20240913152741@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f39308294</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:03.027</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f93221698</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:41.193</t>
   </si>
   <si>
     <t>Create Order with Society Discount (Value) P1 with Invoice HOA Order</t>
@@ -1380,39 +1314,36 @@
     <t>1300.00</t>
   </si>
   <si>
-    <t>20240910120008Test</t>
-  </si>
-  <si>
-    <t>20240910120008Auto</t>
-  </si>
-  <si>
-    <t>20240910120008@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP b3596d22-d137-444c-9c4f-ee4190bb37b7","Using soldTo : b3596d22-d137-444c-9c4f-ee4190bb37b7","Using billTo: b3596d22-d137-444c-9c4f-ee4190bb37b7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214456 for AS order 20240910120008","version":"1.3.5-qa2.100","biId":"3214456"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214456</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214456 for AS order 20240910120008</t>
-  </si>
-  <si>
-    <t>8000051210</t>
-  </si>
-  <si>
-    <t>20240830165046</t>
+    <t>20240913152747Test</t>
+  </si>
+  <si>
+    <t>20240913152747Auto</t>
+  </si>
+  <si>
+    <t>20240913152747@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 0a981450-fe1f-43a6-b880-df970230a4fa","Using soldTo : 0a981450-fe1f-43a6-b880-df970230a4fa","Using billTo: 0a981450-fe1f-43a6-b880-df970230a4fa","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214832 for AS order 20240913152748","version":"1.3.6-qa2.102","biId":"3214832"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214832</t>
+  </si>
+  <si>
+    <t>8000051336</t>
+  </si>
+  <si>
+    <t>20240913152748</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e815a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120008 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1300.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"aafb2cdc-20fd-4fc1-8ea9-d4ade07af2dd\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f50696875\" title: \"Secrets of nature\" dhId: \"e0c3911c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120008Test\" lastName: \"20240910120008Auto\" email: \"20240910120008@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120008Test\" lastName: \"20240910120008Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240910120008@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e815a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e356a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152748 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1300.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"aafb2cdc-20fd-4fc1-8ea9-d4ade07af2dd\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f95366223\" title: \"Secrets of nature\" dhId: \"e0c1585c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152747Test\" lastName: \"20240913152747Auto\" email: \"20240913152747@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240913152747Test\" lastName: \"20240913152747Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240913152747@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e356a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f50696875</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:08.153</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f95366223</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:47.999</t>
   </si>
   <si>
     <t>Create Order with Promo Discount (Value) P2 with Invoice HOA Order</t>
@@ -1424,39 +1355,36 @@
     <t>1216.00</t>
   </si>
   <si>
-    <t>20240910120013Test</t>
-  </si>
-  <si>
-    <t>20240910120013Auto</t>
-  </si>
-  <si>
-    <t>20240910120013@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP a6ae5fe3-83fa-441f-a62d-677b661c0db6","Using soldTo : a6ae5fe3-83fa-441f-a62d-677b661c0db6","Using billTo: a6ae5fe3-83fa-441f-a62d-677b661c0db6","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214457 for AS order 20240910120013","version":"1.3.5-qa2.100","biId":"3214457"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214457</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214457 for AS order 20240910120013</t>
-  </si>
-  <si>
-    <t>8000051211</t>
-  </si>
-  <si>
-    <t>20240830165050</t>
+    <t>20240913152754Test</t>
+  </si>
+  <si>
+    <t>20240913152754Auto</t>
+  </si>
+  <si>
+    <t>20240913152754@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP e1350fb0-78e9-441e-a3b0-8bad66d470fa","Using soldTo : e1350fb0-78e9-441e-a3b0-8bad66d470fa","Using billTo: e1350fb0-78e9-441e-a3b0-8bad66d470fa","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214833 for AS order 20240913152754","version":"1.3.6-qa2.102","biId":"3214833"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214833</t>
+  </si>
+  <si>
+    <t>8000051334</t>
+  </si>
+  <si>
+    <t>20240913152754</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e267a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120013 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPV1\" estimatedTax: 236.00 totalChargedAmount: 1216.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"9b920bd9-28f3-413c-ba21-e101b04ab13e\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f30814860\" title: \"Secrets of nature\" dhId: \"e0c4931c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120013Test\" lastName: \"20240910120013Auto\" email: \"20240910120013@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910120013Test\" lastName: \"20240910120013Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910120013@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e267a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e338a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152754 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPV1\" estimatedTax: 236.00 totalChargedAmount: 1216.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"9b920bd9-28f3-413c-ba21-e101b04ab13e\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f98439500\" title: \"Secrets of nature\" dhId: \"e0c8419c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152754Test\" lastName: \"20240913152754Auto\" email: \"20240913152754@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240913152754Test\" lastName: \"20240913152754Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240913152754@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e338a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f30814860</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:13.066</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f98439500</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:27:54.222</t>
   </si>
   <si>
     <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
@@ -1471,39 +1399,36 @@
     <t>362.70</t>
   </si>
   <si>
-    <t>20240910120017Test</t>
-  </si>
-  <si>
-    <t>20240910120017Auto</t>
-  </si>
-  <si>
-    <t>20240910120017@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d698a386-cc71-4470-ae78-fc4e46c711bd","Using soldTo : d698a386-cc71-4470-ae78-fc4e46c711bd","Using billTo: d698a386-cc71-4470-ae78-fc4e46c711bd","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214458 for AS order 20240910120017","version":"1.3.5-qa2.100","biId":"3214458"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214458</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214458 for AS order 20240910120017</t>
-  </si>
-  <si>
-    <t>8000051212</t>
-  </si>
-  <si>
-    <t>20240830165053</t>
+    <t>20240913152801Test</t>
+  </si>
+  <si>
+    <t>20240913152801Auto</t>
+  </si>
+  <si>
+    <t>20240913152801@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 5a2b056d-7d01-4f5f-a210-b912e062584b","Using soldTo : 5a2b056d-7d01-4f5f-a210-b912e062584b","Using billTo: 5a2b056d-7d01-4f5f-a210-b912e062584b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214834 for AS order 20240913152801","version":"1.3.6-qa2.102","biId":"3214834"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214834</t>
+  </si>
+  <si>
+    <t>8000051332</t>
+  </si>
+  <si>
+    <t>20240913152801</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e548a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120017 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"Society\" discountCode: \"ZSP1\" estimatedTax: 0.00 totalChargedAmount: 3264.30 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f63288123\" title: \"Secrets of nature\" dhId: \"e0c5779c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120017Test\" lastName: \"20240910120017Auto\" email: \"20240910120017@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240910120017Test\" lastName: \"20240910120017Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910120017@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e548a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e312a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152801 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"Society\" discountCode: \"ZSP1\" estimatedTax: 0.00 totalChargedAmount: 3264.30 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f13770517\" title: \"Secrets of nature\" dhId: \"e0c2035c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152801Test\" lastName: \"20240913152801Auto\" email: \"20240913152801@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240913152801Test\" lastName: \"20240913152801Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152801@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e312a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f63288123</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:17.812</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f13770517</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:28:01.040</t>
   </si>
   <si>
     <t>Create Order with Promo Discount (%) P3 with Invoice HOA Order without VAT ID</t>
@@ -1515,39 +1440,36 @@
     <t>652.86</t>
   </si>
   <si>
-    <t>20240910120022Test</t>
-  </si>
-  <si>
-    <t>20240910120022Auto</t>
-  </si>
-  <si>
-    <t>20240910120022@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Using soldTo : 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Using billTo: 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214459 for AS order 20240910120022","version":"1.3.5-qa2.100","biId":"3214459"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214459</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214459 for AS order 20240910120022</t>
-  </si>
-  <si>
-    <t>8000051213</t>
-  </si>
-  <si>
-    <t>20240830165100</t>
+    <t>20240913152807Test</t>
+  </si>
+  <si>
+    <t>20240913152807Auto</t>
+  </si>
+  <si>
+    <t>20240913152807@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP f686f5f4-9f7f-4335-9b47-472ef81b17a7","Using soldTo : f686f5f4-9f7f-4335-9b47-472ef81b17a7","Using billTo: f686f5f4-9f7f-4335-9b47-472ef81b17a7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214835 for AS order 20240913152807","version":"1.3.6-qa2.102","biId":"3214835"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214835</t>
+  </si>
+  <si>
+    <t>8000051330</t>
+  </si>
+  <si>
+    <t>20240913152807</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e578a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120022 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 652.86 totalChargedAmount: 3917.16 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f33765351\" title: \"Secrets of nature\" dhId: \"e0c2725c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120022Test\" lastName: \"20240910120022Auto\" email: \"20240910120022@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240910120022Test\" lastName: \"20240910120022Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910120022@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e578a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e414a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152807 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 652.86 totalChargedAmount: 3917.16 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f75504022\" title: \"Secrets of nature\" dhId: \"e0c4423c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152807Test\" lastName: \"20240913152807Auto\" email: \"20240913152807@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240913152807Test\" lastName: \"20240913152807Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240913152807@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e414a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f33765351</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:22.794</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f75504022</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:28:07.161</t>
   </si>
   <si>
     <t>Create Order with Custom Discount P4 with Invoice HOA Order</t>
@@ -1565,39 +1487,36 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>20240910120028Test</t>
-  </si>
-  <si>
-    <t>20240910120028Auto</t>
-  </si>
-  <si>
-    <t>20240910120028@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 401a8c8a-ea34-42dd-9098-195e456359d7","Using soldTo : 401a8c8a-ea34-42dd-9098-195e456359d7","Using billTo: 401a8c8a-ea34-42dd-9098-195e456359d7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214460 for AS order 20240910120028","version":"1.3.5-qa2.100","biId":"3214460"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214460</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214460 for AS order 20240910120028</t>
-  </si>
-  <si>
-    <t>8000051214</t>
-  </si>
-  <si>
-    <t>20240830165105</t>
+    <t>20240913152814Test</t>
+  </si>
+  <si>
+    <t>20240913152814Auto</t>
+  </si>
+  <si>
+    <t>20240913152814@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP bd746b7a-3dfc-430f-a207-8f028e79c895","Using soldTo : bd746b7a-3dfc-430f-a207-8f028e79c895","Using billTo: bd746b7a-3dfc-430f-a207-8f028e79c895","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214836 for AS order 20240913152814","version":"1.3.6-qa2.102","biId":"3214836"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214836</t>
+  </si>
+  <si>
+    <t>8000051328</t>
+  </si>
+  <si>
+    <t>20240913152814</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120028 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 150.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 252.00 totalChargedAmount: 1602.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f78866080\" title: \"Secrets of nature\" dhId: \"e0c6507c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120028Test\" lastName: \"20240910120028Auto\" email: \"20240910120028@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120028Test\" lastName: \"20240910120028Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910120028@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e333a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152814 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 150.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 252.00 totalChargedAmount: 1602.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f41459077\" title: \"Secrets of nature\" dhId: \"e0c9706c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152814Test\" lastName: \"20240913152814Auto\" email: \"20240913152814@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240913152814Test\" lastName: \"20240913152814Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240913152814@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e333a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f78866080</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:28.008</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f41459077</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:28:14.050</t>
   </si>
   <si>
     <t>Create Order with Institutional Discount P4 with Invoice HOA Order</t>
@@ -1609,77 +1528,71 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>20240910120033Test</t>
-  </si>
-  <si>
-    <t>20240910120033Auto</t>
-  </si>
-  <si>
-    <t>20240910120033@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Using soldTo : 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Using billTo: 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214461 for AS order 20240910120033","version":"1.3.5-qa2.100","biId":"3214461"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214461</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214461 for AS order 20240910120033</t>
-  </si>
-  <si>
-    <t>8000051215</t>
-  </si>
-  <si>
-    <t>20240830165111</t>
+    <t>20240913152820Test</t>
+  </si>
+  <si>
+    <t>20240913152820Auto</t>
+  </si>
+  <si>
+    <t>20240913152820@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d0baf3fc-d31b-4f6b-92f5-c949bf348441","Using soldTo : d0baf3fc-d31b-4f6b-92f5-c949bf348441","Using billTo: d0baf3fc-d31b-4f6b-92f5-c949bf348441","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214837 for AS order 20240913152820","version":"1.3.6-qa2.102","biId":"3214837"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214837</t>
+  </si>
+  <si>
+    <t>8000051326</t>
+  </si>
+  <si>
+    <t>20240913152820</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e485a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120033 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 100.00 discountType: \"Custom\" discountCode: \"ZCDA\" estimatedTax: 0.00 totalChargedAmount: 1400.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f33061346\" title: \"Secrets of nature\" dhId: \"e0c4847c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120033Test\" lastName: \"20240910120033Auto\" email: \"20240910120033@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120033Test\" lastName: \"20240910120033Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240910120033@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e485a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e209a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152820 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2024-09-13T15:00:14-05\" paymentDate: \"2024-09-13T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-13T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 100.00 discountType: \"Custom\" discountCode: \"ZCDA\" estimatedTax: 0.00 totalChargedAmount: 1400.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f68081593\" title: \"Secrets of nature\" dhId: \"e0c1911c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240913152820Test\" lastName: \"20240913152820Auto\" email: \"20240913152820@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240913152820Test\" lastName: \"20240913152820Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240913152820@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e209a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f33061346</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:33.532</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f68081593</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:28:20.327</t>
   </si>
   <si>
     <t>Create Order with Society Discount Value P4 with Alipay HOA Order</t>
   </si>
   <si>
-    <t>20240910120039Test</t>
-  </si>
-  <si>
-    <t>20240910120039Auto</t>
-  </si>
-  <si>
-    <t>20240910120039@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d29b3d35-048c-4c70-a7f4-0afd330aeb41","Using soldTo : d29b3d35-048c-4c70-a7f4-0afd330aeb41","Using billTo: d29b3d35-048c-4c70-a7f4-0afd330aeb41","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214462 for AS order 20240910120039","version":"1.3.5-qa2.100","biId":"3214462"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214462</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214462 for AS order 20240910120039</t>
-  </si>
-  <si>
-    <t>8000051216</t>
-  </si>
-  <si>
-    <t>20240830165117</t>
+    <t>20240913152826Test</t>
+  </si>
+  <si>
+    <t>20240913152826Auto</t>
+  </si>
+  <si>
+    <t>20240913152826@Wiley.com</t>
+  </si>
+  <si>
+    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP bedb2f18-b53a-48e3-802b-6ee357435868","Using soldTo : bedb2f18-b53a-48e3-802b-6ee357435868","Using billTo: bedb2f18-b53a-48e3-802b-6ee357435868","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214838 for AS order 20240913152827","version":"1.3.6-qa2.102","biId":"3214838"}}'}}}</t>
+  </si>
+  <si>
+    <t>3214838</t>
+  </si>
+  <si>
+    <t>8000051305</t>
+  </si>
+  <si>
+    <t>20240913152827</t>
   </si>
   <si>
     <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e530a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120039 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 4300.00 appliedDiscount: 0.00 discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 4300.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f79755564\" title: \"Secrets of nature\" dhId: \"e0c7649c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240910120039Test\" lastName: \"20240910120039Auto\" email: \"20240910120039@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 4300.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-10 08:00:00\" } billingAddress: { firstName: \"20240910120039Test\" lastName: \"20240910120039Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"0703503263\" email: \"20240910120039@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e530a\" } } ] } }\t) { status data\t}}"
+  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e504a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240913152827 submittedDate: \"2024-09-13T15:00:14-05\" createdDate: \"2024-09-13T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 4300.00 appliedDiscount: 0.00 discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 4300.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f92491903\" title: \"Secrets of nature\" dhId: \"e0c9139c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240913152826Test\" lastName: \"20240913152826Auto\" email: \"20240913152826@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 4300.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-13 08:00:00\" } billingAddress: { firstName: \"20240913152826Test\" lastName: \"20240913152826Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"0703503263\" email: \"20240913152826@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e504a\" } } ] } }\t) { status data\t}}"
 }</t>
   </si>
   <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f79755564</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:39.234</t>
+    <t>11ca99f1-8a00-4cb3-123e-222f92491903</t>
+  </si>
+  <si>
+    <t>2024-09-13 15:28:26.964</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -1837,6 +1750,12 @@
     <t>11ca99f1-8a00-4cb3-123e-222f55804869</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
     <t>07030</t>
   </si>
   <si>
@@ -1866,6 +1785,9 @@
     <t>2024-08-20 18:38:46.695</t>
   </si>
   <si>
+    <t>2471</t>
+  </si>
+  <si>
     <t>SW18 1JS</t>
   </si>
   <si>
@@ -2116,6 +2038,9 @@
   </si>
   <si>
     <t>2024-08-20 18:38:57.795</t>
+  </si>
+  <si>
+    <t>2112</t>
   </si>
   <si>
     <t>20240820183858Test</t>
@@ -2435,8 +2360,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2510,7 +2435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2618,12 +2543,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2938,8 +2873,8 @@
   </sheetPr>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2992,10 +2927,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -3075,7 +3010,7 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="54" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
@@ -3084,22 +3019,22 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="53" t="s">
         <v>39</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="54" t="s">
         <v>40</v>
       </c>
       <c r="Q2" s="43">
@@ -3120,7 +3055,7 @@
       <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X2" t="s">
@@ -3161,7 +3096,7 @@
       <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="54" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
@@ -3170,25 +3105,25 @@
       <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="53" t="s">
         <v>61</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q3" s="44" t="s">
@@ -3209,34 +3144,34 @@
       <c r="V3" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="W3" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X3" t="s">
         <v>69</v>
       </c>
       <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>74</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>31</v>
@@ -3248,84 +3183,84 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
       </c>
       <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="53" t="s">
         <v>82</v>
-      </c>
-      <c r="L4" t="s">
-        <v>83</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="R4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="S4" t="s">
         <v>87</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>88</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>89</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>90</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>94</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>96</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>31</v>
@@ -3337,37 +3272,37 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
       <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="53" t="s">
         <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>106</v>
       </c>
       <c r="M5">
         <v>20</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>108</v>
+      <c r="N5" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="Q5" s="43">
         <v>14469</v>
@@ -3376,45 +3311,45 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" t="s">
         <v>109</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>110</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
         <v>111</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
         <v>112</v>
       </c>
-      <c r="W5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
         <v>116</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>31</v>
@@ -3426,40 +3361,40 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>106</v>
+      <c r="L6" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>108</v>
+      <c r="O6" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="43">
         <v>14469</v>
@@ -3468,45 +3403,45 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U6" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" t="s">
         <v>123</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
         <v>124</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
         <v>125</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>126</v>
       </c>
-      <c r="W6" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
         <v>127</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AC6" t="s">
         <v>128</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AD6" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
         <v>130</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
-        <v>134</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>31</v>
@@ -3518,37 +3453,37 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="53" t="s">
         <v>136</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" t="s">
-        <v>140</v>
       </c>
       <c r="M7">
         <v>18</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>142</v>
+      <c r="N7" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="Q7" s="43">
         <v>627001</v>
@@ -3557,45 +3492,45 @@
         <v>22</v>
       </c>
       <c r="S7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V7" t="s">
+        <v>142</v>
+      </c>
+      <c r="W7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
         <v>143</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
         <v>144</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AA7" t="s">
         <v>145</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AB7" t="s">
         <v>146</v>
       </c>
-      <c r="W7" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AC7" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AD7" t="s">
         <v>148</v>
       </c>
-      <c r="Z7" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
         <v>149</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>31</v>
@@ -3622,13 +3557,13 @@
         <v>38</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3637,7 +3572,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="43">
         <v>210008</v>
@@ -3646,42 +3581,39 @@
         <v>100</v>
       </c>
       <c r="S8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T8" t="s">
+        <v>154</v>
+      </c>
+      <c r="U8" t="s">
+        <v>155</v>
+      </c>
+      <c r="V8" t="s">
+        <v>156</v>
+      </c>
+      <c r="W8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" t="s">
         <v>158</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AB8" t="s">
         <v>159</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AC8" t="s">
         <v>160</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AD8" t="s">
         <v>161</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -3695,34 +3627,34 @@
       <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="53" t="s">
         <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>83</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="44" t="s">
@@ -3732,45 +3664,45 @@
         <v>64</v>
       </c>
       <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" t="s">
+        <v>169</v>
+      </c>
+      <c r="V9" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z9" t="s">
         <v>173</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AA9" t="s">
         <v>174</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AB9" t="s">
         <v>175</v>
       </c>
-      <c r="V9" t="s">
+      <c r="AC9" t="s">
         <v>176</v>
       </c>
-      <c r="W9" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="AD9" t="s">
         <v>177</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>31</v>
@@ -3782,84 +3714,84 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="I10" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="53" t="s">
         <v>61</v>
       </c>
       <c r="M10">
         <v>20</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" t="s">
+        <v>182</v>
+      </c>
+      <c r="T10" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" t="s">
+        <v>185</v>
+      </c>
+      <c r="W10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
         <v>186</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="Y10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z10" t="s">
         <v>187</v>
       </c>
-      <c r="Q10" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="AA10" t="s">
         <v>188</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AC10" t="s">
         <v>190</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AD10" t="s">
         <v>191</v>
-      </c>
-      <c r="W10" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>31</v>
@@ -3871,36 +3803,36 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
+      <c r="I11" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="M11">
         <v>20</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q11" s="43">
@@ -3910,45 +3842,45 @@
         <v>12</v>
       </c>
       <c r="S11" t="s">
+        <v>196</v>
+      </c>
+      <c r="T11" t="s">
+        <v>197</v>
+      </c>
+      <c r="U11" t="s">
+        <v>198</v>
+      </c>
+      <c r="V11" t="s">
+        <v>199</v>
+      </c>
+      <c r="W11" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB11" t="s">
         <v>203</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AC11" t="s">
         <v>204</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AD11" t="s">
         <v>205</v>
-      </c>
-      <c r="V11" t="s">
-        <v>206</v>
-      </c>
-      <c r="W11" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>31</v>
@@ -3960,40 +3892,40 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>106</v>
+      <c r="I12" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="54" t="s">
         <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="43">
         <v>14469</v>
@@ -4002,45 +3934,45 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
+        <v>209</v>
+      </c>
+      <c r="T12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U12" t="s">
+        <v>211</v>
+      </c>
+      <c r="V12" t="s">
+        <v>212</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC12" t="s">
         <v>217</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AD12" t="s">
         <v>218</v>
-      </c>
-      <c r="U12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V12" t="s">
-        <v>220</v>
-      </c>
-      <c r="W12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>31</v>
@@ -4052,37 +3984,37 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
+      <c r="J13" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="M13">
         <v>18</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>45</v>
+      <c r="N13" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="Q13" s="43">
         <v>627001</v>
@@ -4091,45 +4023,45 @@
         <v>22</v>
       </c>
       <c r="S13" t="s">
+        <v>222</v>
+      </c>
+      <c r="T13" t="s">
+        <v>223</v>
+      </c>
+      <c r="U13" t="s">
+        <v>224</v>
+      </c>
+      <c r="V13" t="s">
+        <v>225</v>
+      </c>
+      <c r="W13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD13" t="s">
         <v>231</v>
-      </c>
-      <c r="T13" t="s">
-        <v>232</v>
-      </c>
-      <c r="U13" t="s">
-        <v>233</v>
-      </c>
-      <c r="V13" t="s">
-        <v>234</v>
-      </c>
-      <c r="W13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>31</v>
@@ -4143,31 +4075,31 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="53" t="s">
         <v>39</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q14" s="43">
@@ -4177,45 +4109,45 @@
         <v>190</v>
       </c>
       <c r="S14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="T14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="U14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="V14" t="s">
-        <v>247</v>
-      </c>
-      <c r="W14" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="W14" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Y14" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AA14" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="AB14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AC14" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AD14" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>31</v>
@@ -4229,34 +4161,34 @@
       <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="53" t="s">
         <v>61</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q15" s="44" t="s">
@@ -4266,45 +4198,45 @@
         <v>64</v>
       </c>
       <c r="S15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="T15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="U15" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="V15" t="s">
-        <v>260</v>
-      </c>
-      <c r="W15" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="W15" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X15" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Y15" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Z15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AB15" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AC15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AD15" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>31</v>
@@ -4316,84 +4248,84 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
       <c r="G16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="53" t="s">
         <v>82</v>
-      </c>
-      <c r="L16" t="s">
-        <v>83</v>
       </c>
       <c r="M16">
         <v>20</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="O16" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" t="s">
+        <v>262</v>
+      </c>
+      <c r="T16" t="s">
+        <v>263</v>
+      </c>
+      <c r="U16" t="s">
+        <v>264</v>
+      </c>
+      <c r="V16" t="s">
+        <v>265</v>
+      </c>
+      <c r="W16" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD16" t="s">
         <v>271</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q16" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" t="s">
-        <v>273</v>
-      </c>
-      <c r="T16" t="s">
-        <v>274</v>
-      </c>
-      <c r="U16" t="s">
-        <v>275</v>
-      </c>
-      <c r="V16" t="s">
-        <v>276</v>
-      </c>
-      <c r="W16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X16" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>31</v>
@@ -4405,40 +4337,40 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" t="s">
-        <v>106</v>
+      <c r="I17" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>272</v>
+      <c r="O17" s="54" t="s">
+        <v>261</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="43">
         <v>14469</v>
@@ -4447,45 +4379,45 @@
         <v>12</v>
       </c>
       <c r="S17" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="U17" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="V17" t="s">
-        <v>289</v>
-      </c>
-      <c r="W17" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="W17" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X17" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Y17" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="Z17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AA17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="AB17" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AC17" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="AD17" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>31</v>
@@ -4497,37 +4429,37 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s">
-        <v>106</v>
+      <c r="I18" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>272</v>
+      <c r="N18" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>261</v>
       </c>
       <c r="Q18" s="43">
         <v>14469</v>
@@ -4536,45 +4468,45 @@
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="T18" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="U18" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="V18" t="s">
-        <v>301</v>
-      </c>
-      <c r="W18" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="W18" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X18" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="Y18" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="Z18" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AA18" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="AB18" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="AC18" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="AD18" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>31</v>
@@ -4586,37 +4518,37 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" t="s">
-        <v>140</v>
+      <c r="L19" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="M19">
         <v>18</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>312</v>
+      <c r="O19" s="54" t="s">
+        <v>298</v>
       </c>
       <c r="Q19" s="43">
         <v>627001</v>
@@ -4625,45 +4557,45 @@
         <v>22</v>
       </c>
       <c r="S19" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T19" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U19" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V19" t="s">
-        <v>316</v>
-      </c>
-      <c r="W19" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="W19" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X19" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="Y19" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="Z19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AA19" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AB19" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="AC19" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AD19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>324</v>
+      <c r="A20" s="51" t="s">
+        <v>309</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>31</v>
@@ -4677,31 +4609,31 @@
       <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="53" t="s">
         <v>39</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q20" s="43">
@@ -4711,585 +4643,585 @@
         <v>100</v>
       </c>
       <c r="S20" t="s">
+        <v>310</v>
+      </c>
+      <c r="T20" t="s">
+        <v>311</v>
+      </c>
+      <c r="U20" t="s">
+        <v>312</v>
+      </c>
+      <c r="V20" t="s">
+        <v>313</v>
+      </c>
+      <c r="W20" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="T20" t="s">
+      <c r="Q21" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" t="s">
         <v>326</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T21" t="s">
         <v>327</v>
       </c>
-      <c r="V20" t="s">
+      <c r="U21" t="s">
         <v>328</v>
       </c>
-      <c r="W20" s="50" t="s">
+      <c r="V21" t="s">
+        <v>329</v>
+      </c>
+      <c r="W21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="X20" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="X21" t="s">
         <v>330</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21" t="s">
         <v>331</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA21" t="s">
         <v>332</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB21" t="s">
         <v>333</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC21" t="s">
         <v>334</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD21" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:30" s="50" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B22" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I22" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="J22" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="O22" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" t="s">
+        <v>342</v>
+      </c>
+      <c r="T22" t="s">
+        <v>343</v>
+      </c>
+      <c r="U22" t="s">
+        <v>344</v>
+      </c>
+      <c r="V22" t="s">
+        <v>345</v>
+      </c>
+      <c r="W22" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E23" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="50">
+        <v>14469</v>
+      </c>
+      <c r="R23" s="50">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>356</v>
+      </c>
+      <c r="T23" t="s">
+        <v>357</v>
+      </c>
+      <c r="U23" t="s">
+        <v>358</v>
+      </c>
+      <c r="V23" t="s">
+        <v>359</v>
+      </c>
+      <c r="W23" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>14469</v>
+      </c>
+      <c r="R24" s="50">
+        <v>12</v>
+      </c>
+      <c r="S24" t="s">
+        <v>370</v>
+      </c>
+      <c r="T24" t="s">
+        <v>371</v>
+      </c>
+      <c r="U24" t="s">
+        <v>372</v>
+      </c>
+      <c r="V24" t="s">
+        <v>373</v>
+      </c>
+      <c r="W24" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G25" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="H21" t="s">
-        <v>338</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="7" t="s">
+      <c r="H25" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="N25" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="O25" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q25" s="50">
+        <v>627001</v>
+      </c>
+      <c r="R25" s="50">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s">
+        <v>385</v>
+      </c>
+      <c r="T25" t="s">
+        <v>386</v>
+      </c>
+      <c r="U25" t="s">
+        <v>387</v>
+      </c>
+      <c r="V25" t="s">
+        <v>388</v>
+      </c>
+      <c r="W25" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="M26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N26" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q21" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" t="s">
-        <v>342</v>
-      </c>
-      <c r="T21" t="s">
-        <v>343</v>
-      </c>
-      <c r="U21" t="s">
-        <v>344</v>
-      </c>
-      <c r="V21" t="s">
-        <v>345</v>
-      </c>
-      <c r="W21" s="50" t="s">
+      <c r="O26" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>510055</v>
+      </c>
+      <c r="R26" s="50">
+        <v>190</v>
+      </c>
+      <c r="S26" t="s">
+        <v>399</v>
+      </c>
+      <c r="T26" t="s">
+        <v>400</v>
+      </c>
+      <c r="U26" t="s">
+        <v>401</v>
+      </c>
+      <c r="V26" t="s">
+        <v>402</v>
+      </c>
+      <c r="W26" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>338</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S22" t="s">
-        <v>359</v>
-      </c>
-      <c r="T22" t="s">
-        <v>360</v>
-      </c>
-      <c r="U22" t="s">
-        <v>361</v>
-      </c>
-      <c r="V22" t="s">
-        <v>362</v>
-      </c>
-      <c r="W22" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P23" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>14469</v>
-      </c>
-      <c r="R23" s="43">
-        <v>12</v>
-      </c>
-      <c r="S23" t="s">
-        <v>374</v>
-      </c>
-      <c r="T23" t="s">
-        <v>375</v>
-      </c>
-      <c r="U23" t="s">
-        <v>376</v>
-      </c>
-      <c r="V23" t="s">
-        <v>377</v>
-      </c>
-      <c r="W23" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="s">
-        <v>338</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" t="s">
-        <v>387</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>14469</v>
-      </c>
-      <c r="R24" s="43">
-        <v>12</v>
-      </c>
-      <c r="S24" t="s">
-        <v>389</v>
-      </c>
-      <c r="T24" t="s">
-        <v>390</v>
-      </c>
-      <c r="U24" t="s">
-        <v>391</v>
-      </c>
-      <c r="V24" t="s">
-        <v>392</v>
-      </c>
-      <c r="W24" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X24" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" t="s">
-        <v>338</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K25" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" t="s">
-        <v>402</v>
-      </c>
-      <c r="M25" s="7" t="s">
+      <c r="X26" t="s">
         <v>403</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="Y26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" t="s">
         <v>404</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q25" s="43">
-        <v>627001</v>
-      </c>
-      <c r="R25" s="43">
-        <v>22</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="AA26" t="s">
         <v>405</v>
       </c>
-      <c r="T25" t="s">
+      <c r="AB26" t="s">
         <v>406</v>
       </c>
-      <c r="U25" t="s">
+      <c r="AC26" t="s">
         <v>407</v>
       </c>
-      <c r="V25" t="s">
+      <c r="AD26" t="s">
         <v>408</v>
       </c>
-      <c r="W25" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="Y25" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB25" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>338</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K26" t="s">
-        <v>418</v>
-      </c>
-      <c r="L26" t="s">
-        <v>419</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q26" s="43">
-        <v>510055</v>
-      </c>
-      <c r="R26" s="43">
-        <v>190</v>
-      </c>
-      <c r="S26" t="s">
-        <v>420</v>
-      </c>
-      <c r="T26" t="s">
-        <v>421</v>
-      </c>
-      <c r="U26" t="s">
-        <v>422</v>
-      </c>
-      <c r="V26" t="s">
-        <v>423</v>
-      </c>
-      <c r="W26" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X26" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="B27" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>54</v>
@@ -5300,34 +5232,34 @@
       <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="K27" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K27" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="53" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="56" t="s">
         <v>62</v>
       </c>
       <c r="Q27" s="44" t="s">
@@ -5337,48 +5269,48 @@
         <v>64</v>
       </c>
       <c r="S27" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="T27" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="U27" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="V27" t="s">
-        <v>437</v>
-      </c>
-      <c r="W27" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="W27" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X27" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="Y27" t="s">
-        <v>439</v>
+        <v>172</v>
       </c>
       <c r="Z27" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="AA27" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="AB27" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="AC27" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="AD27" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>445</v>
+      <c r="A28" s="52" t="s">
+        <v>422</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>54</v>
@@ -5387,87 +5319,87 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F28" t="s">
-        <v>78</v>
-      </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="K28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" t="s">
-        <v>387</v>
+        <v>423</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" s="54" t="s">
         <v>62</v>
       </c>
       <c r="Q28" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="R28" s="43" t="s">
-        <v>87</v>
-      </c>
       <c r="S28" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="T28" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="U28" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="V28" t="s">
-        <v>451</v>
-      </c>
-      <c r="W28" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="W28" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X28" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="Y28" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
       <c r="Z28" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="AA28" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="AB28" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="AC28" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="AD28" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>459</v>
+      <c r="A29" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>54</v>
@@ -5476,40 +5408,40 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="K29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="L29" t="s">
-        <v>461</v>
+      <c r="L29" s="53" t="s">
+        <v>437</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>462</v>
+      <c r="O29" s="54" t="s">
+        <v>438</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="43">
         <v>14469</v>
@@ -5518,48 +5450,48 @@
         <v>12</v>
       </c>
       <c r="S29" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="T29" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="U29" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="V29" t="s">
-        <v>466</v>
-      </c>
-      <c r="W29" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="W29" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X29" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="Y29" t="s">
-        <v>468</v>
+        <v>172</v>
       </c>
       <c r="Z29" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="AA29" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AB29" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="AC29" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="AD29" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>474</v>
+      <c r="A30" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>54</v>
@@ -5568,37 +5500,37 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>338</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="K30" t="s">
+        <v>322</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L30" t="s">
-        <v>83</v>
-      </c>
       <c r="M30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>339</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="O30" s="54" t="s">
+        <v>438</v>
       </c>
       <c r="Q30" s="43">
         <v>14469</v>
@@ -5607,48 +5539,48 @@
         <v>12</v>
       </c>
       <c r="S30" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="T30" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="U30" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="V30" t="s">
-        <v>480</v>
-      </c>
-      <c r="W30" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="W30" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X30" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="Y30" t="s">
-        <v>482</v>
+        <v>172</v>
       </c>
       <c r="Z30" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="AA30" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="AB30" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="AC30" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="AD30" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>488</v>
+      <c r="A31" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>54</v>
@@ -5657,37 +5589,37 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" t="s">
+        <v>463</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="K31" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" t="s">
-        <v>489</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="K31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s">
-        <v>140</v>
+      <c r="L31" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>383</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="O31" s="54" t="s">
+        <v>466</v>
       </c>
       <c r="Q31" s="43">
         <v>627001</v>
@@ -5696,48 +5628,48 @@
         <v>22</v>
       </c>
       <c r="S31" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="T31" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="U31" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="V31" t="s">
-        <v>496</v>
-      </c>
-      <c r="W31" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="W31" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X31" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="Y31" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="Z31" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="AA31" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB31" s="47" t="s">
-        <v>501</v>
+        <v>473</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>474</v>
       </c>
       <c r="AC31" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="AD31" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>504</v>
+      <c r="A32" s="13" t="s">
+        <v>477</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>54</v>
@@ -5748,35 +5680,35 @@
       <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>489</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K32" t="s">
-        <v>418</v>
-      </c>
-      <c r="L32" t="s">
-        <v>419</v>
+        <v>463</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>398</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>506</v>
+      <c r="O32" s="54" t="s">
+        <v>479</v>
       </c>
       <c r="Q32" s="43">
         <v>210008</v>
@@ -5785,48 +5717,48 @@
         <v>100</v>
       </c>
       <c r="S32" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="T32" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="U32" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="V32" t="s">
-        <v>510</v>
-      </c>
-      <c r="W32" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="W32" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="Y32" t="s">
-        <v>512</v>
+        <v>172</v>
       </c>
       <c r="Z32" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="AA32" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="AB32" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="AC32" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="AD32" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>518</v>
+      <c r="A33" s="49" t="s">
+        <v>490</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>54</v>
@@ -5837,31 +5769,31 @@
       <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="K33" s="53" t="s">
         <v>60</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="54" t="s">
         <v>40</v>
       </c>
       <c r="Q33" s="43">
@@ -5871,40 +5803,40 @@
         <v>100</v>
       </c>
       <c r="S33" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="T33" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="U33" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="V33" t="s">
-        <v>522</v>
-      </c>
-      <c r="W33" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="W33" s="53" t="s">
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="Y33" t="s">
-        <v>524</v>
+        <v>47</v>
       </c>
       <c r="Z33" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="AA33" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="AB33" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="AC33" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="AD33" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5938,19 +5870,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>10</v>
@@ -5962,109 +5894,109 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="A2" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>542</v>
+      <c r="E2" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>513</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="57">
+      <c r="I2" s="63">
         <v>0</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>543</v>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+        <v>515</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="56" t="s">
-        <v>545</v>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="62" t="s">
+        <v>516</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>60</v>
@@ -6073,7 +6005,7 @@
         <v>55</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
@@ -6084,279 +6016,279 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="25" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I8" s="27">
         <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>551</v>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>522</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="26" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I10" s="27">
         <v>20</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56" t="s">
-        <v>540</v>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="62" t="s">
+        <v>511</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="26" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51" t="s">
-        <v>169</v>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="57" t="s">
+        <v>163</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="28" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I14" s="30">
         <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="51" t="s">
-        <v>550</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>551</v>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="57" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>522</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="29" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I16" s="30">
         <v>20</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="51" t="s">
-        <v>540</v>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="57" t="s">
+        <v>511</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I17" s="30">
         <v>18</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="29" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55" t="s">
-        <v>256</v>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61" t="s">
+        <v>245</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>60</v>
@@ -6365,133 +6297,133 @@
         <v>55</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="20" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I20" s="31">
         <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>551</v>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61" t="s">
+        <v>521</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>522</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I21" s="31">
         <v>0</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="19" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I22" s="31">
         <v>20</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55" t="s">
-        <v>540</v>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61" t="s">
+        <v>511</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I23" s="31">
         <v>18</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="19" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I24" s="31">
         <v>0</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6547,19 +6479,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>10</v>
@@ -6571,342 +6503,342 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="I2" s="66">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>534</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>542</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="I2" s="60">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56" t="s">
-        <v>545</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>563</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="25" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I5" s="27">
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
-        <v>550</v>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="62" t="s">
+        <v>521</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="37" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I7" s="27">
         <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="56" t="s">
-        <v>540</v>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="62" t="s">
+        <v>511</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I8" s="27">
         <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="36" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="51" t="s">
-        <v>169</v>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="57" t="s">
+        <v>163</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I10" s="30">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="28" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I11" s="30">
         <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51" t="s">
-        <v>550</v>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="57" t="s">
+        <v>521</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="38" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I13" s="30">
         <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="51" t="s">
-        <v>540</v>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="57" t="s">
+        <v>511</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I14" s="30">
         <v>18</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -7048,7 +6980,7 @@
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>54</v>
@@ -7069,10 +7001,10 @@
         <v>57</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
@@ -7084,22 +7016,22 @@
         <v>40</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="P2" s="43">
         <v>3208</v>
       </c>
       <c r="Q2" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="R2" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="S2" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="T2" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>45</v>
@@ -7111,13 +7043,13 @@
         <v>8000042385</v>
       </c>
       <c r="X2" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="Y2" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="Z2" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="AA2" s="41">
         <v>45524.776910949076</v>
@@ -7146,10 +7078,10 @@
         <v>57</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>58</v>
+        <v>552</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
@@ -7167,19 +7099,19 @@
         <v>62</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="Q3" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="R3" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="S3" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="T3" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>45</v>
@@ -7191,21 +7123,21 @@
         <v>8000042386</v>
       </c>
       <c r="X3" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="Y3" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="Z3" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="AA3" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>54</v>
@@ -7214,52 +7146,52 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" t="s">
         <v>81</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>82</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
       </c>
       <c r="L4">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="P4" s="43" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="Q4" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="R4" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="S4" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="T4" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>45</v>
@@ -7268,21 +7200,21 @@
         <v>3213964</v>
       </c>
       <c r="X4" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="Y4" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="Z4" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="AA4" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>54</v>
@@ -7291,52 +7223,52 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>106</v>
       </c>
       <c r="L5">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="43">
         <v>65189</v>
       </c>
       <c r="Q5" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="R5" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="S5" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="T5" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>45</v>
@@ -7348,21 +7280,21 @@
         <v>8000042387</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="Y5" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="Z5" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="AA5" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>54</v>
@@ -7371,28 +7303,28 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7401,51 +7333,51 @@
         <v>40</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P6" s="43">
         <v>65189</v>
       </c>
       <c r="Q6" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="R6" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="S6" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="T6" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="W6">
         <v>8000042388</v>
       </c>
       <c r="X6" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="Y6" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="Z6" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="AA6" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>54</v>
@@ -7454,7 +7386,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -7463,69 +7395,69 @@
         <v>56</v>
       </c>
       <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="J7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
         <v>136</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="J7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" t="s">
-        <v>140</v>
       </c>
       <c r="L7">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P7" s="43">
         <v>517501</v>
       </c>
       <c r="Q7" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="R7" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="S7" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="T7" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="W7" s="40">
         <v>8000042389</v>
       </c>
       <c r="X7" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="Y7" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="Z7" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="AA7" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>54</v>
@@ -7543,13 +7475,13 @@
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -7561,48 +7493,48 @@
         <v>40</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="P8" s="43">
         <v>3208</v>
       </c>
       <c r="Q8" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="R8" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="S8" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="T8" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="W8" s="40">
         <v>8000042390</v>
       </c>
       <c r="X8" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="Y8" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="Z8" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="AA8" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -7617,46 +7549,46 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
         <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="Q9" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="R9" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="S9" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="T9" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="U9" s="17" t="s">
         <v>45</v>
@@ -7668,21 +7600,21 @@
         <v>8000048137</v>
       </c>
       <c r="X9" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="Y9" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="Z9" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="AA9" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>54</v>
@@ -7691,22 +7623,22 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
         <v>60</v>
@@ -7718,25 +7650,25 @@
         <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="Q10" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="R10" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="S10" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="T10" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>45</v>
@@ -7745,21 +7677,21 @@
         <v>3213979</v>
       </c>
       <c r="X10" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="Y10" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="Z10" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="AA10" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>54</v>
@@ -7768,34 +7700,34 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11">
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>62</v>
@@ -7804,16 +7736,16 @@
         <v>65189</v>
       </c>
       <c r="Q11" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="R11" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="S11" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="T11" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>45</v>
@@ -7825,21 +7757,21 @@
         <v>8000042376</v>
       </c>
       <c r="X11" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="Y11" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="Z11" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="AA11" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>54</v>
@@ -7848,55 +7780,55 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P12" s="43">
         <v>65189</v>
       </c>
       <c r="Q12" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="R12" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="S12" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="T12" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>45</v>
@@ -7908,21 +7840,21 @@
         <v>8000042377</v>
       </c>
       <c r="X12" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="Y12" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="Z12" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="AA12" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>54</v>
@@ -7931,13 +7863,13 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -7946,19 +7878,19 @@
         <v>38</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>229</v>
+        <v>642</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>45</v>
@@ -7967,16 +7899,16 @@
         <v>517501</v>
       </c>
       <c r="Q13" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="R13" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="S13" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="T13" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>45</v>
@@ -7988,21 +7920,21 @@
         <v>8000042378</v>
       </c>
       <c r="X13" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="Y13" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="Z13" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="AA13" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>54</v>
@@ -8017,7 +7949,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -8026,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
@@ -8044,42 +7976,42 @@
         <v>3208</v>
       </c>
       <c r="Q14" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="R14" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="S14" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="T14" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="W14">
         <v>8000042379</v>
       </c>
       <c r="X14" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="Y14" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="Z14" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="AA14" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>54</v>
@@ -8094,16 +8026,16 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>58</v>
+        <v>552</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="J15" t="s">
         <v>60</v>
@@ -8121,45 +8053,45 @@
         <v>62</v>
       </c>
       <c r="P15" s="44" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="Q15" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="R15" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="S15" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="T15" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V15" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="W15" s="40">
         <v>8000042380</v>
       </c>
       <c r="X15" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="Y15" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="Z15" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="AA15" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>54</v>
@@ -8168,75 +8100,75 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>83</v>
       </c>
       <c r="L16">
         <v>20</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="Q16" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="R16" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="S16" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="T16" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="X16" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="Y16" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="Z16" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="AA16" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>54</v>
@@ -8245,28 +8177,28 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -8275,25 +8207,25 @@
         <v>40</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="43">
         <v>65189</v>
       </c>
       <c r="Q17" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="R17" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="S17" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="T17" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>45</v>
@@ -8305,21 +8237,21 @@
         <v>8000042381</v>
       </c>
       <c r="X17" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="Y17" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="Z17" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="AA17" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>54</v>
@@ -8328,78 +8260,78 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" t="s">
-        <v>102</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="P18" s="43">
         <v>65189</v>
       </c>
       <c r="Q18" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="R18" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="S18" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="T18" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V18" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="W18" s="40">
         <v>8000042382</v>
       </c>
       <c r="X18" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="Y18" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="Z18" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="AA18" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>54</v>
@@ -8408,28 +8340,28 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -8438,48 +8370,48 @@
         <v>40</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="P19" s="43">
         <v>517501</v>
       </c>
       <c r="Q19" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="R19" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="S19" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="T19" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="W19" s="40">
         <v>8000042383</v>
       </c>
       <c r="X19" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="Y19" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="Z19" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="AA19" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>54</v>
@@ -8494,16 +8426,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
@@ -8515,113 +8447,113 @@
         <v>40</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="P20" s="43">
         <v>3208</v>
       </c>
       <c r="Q20" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="R20" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="S20" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="T20" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="V20" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="W20" s="40">
         <v>8000042384</v>
       </c>
       <c r="X20" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="Y20" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="Z20" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="AA20" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
